--- a/Person/闫佳莹/知行.XLSX
+++ b/Person/闫佳莹/知行.XLSX
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBF44FD-592B-498F-927A-A03D4D4DBE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD943E7F-E4C7-4A3F-ADE7-4A02CD2A67FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>引用编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +193,106 @@
   </si>
   <si>
     <t>作为一个用户，我希望可以退出该账号以便于切换账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT VISION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为用户提供景点介绍，传播历史文化的一款APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analy of profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.旅游广告插入  2.语音播放收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对旅游有意向但不经常旅游用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常旅游名胜古迹的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常旅游但无目的性用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有自己详细计划的旅游用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重游用户 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想了解更多的旅游景点相关知识，但实际去可能性不大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游的时候不知道去哪，不了解当地文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有自己的原因或想法去旅游，有目的性，但不了解当地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常去各地旅游，但不一定都了解当地特色民俗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去过某个地方还想进一步了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -255,6 +357,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1012,4 +1123,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0233147-023C-495B-A5EA-74EA02CFF625}">
+  <dimension ref="A2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C19186B-0CB5-4086-824B-72965401DF46}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>